--- a/File_Upload/Data Leads Normal 10.xlsx
+++ b/File_Upload/Data Leads Normal 10.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\File_Upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB447F39-992C-477E-9B9E-084CDB98AE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7C344E-D025-47BE-B05E-FB78A8B10B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{6543FB16-069B-4E92-8879-C2AD58E2EFA1}"/>
   </bookViews>
@@ -115,16 +115,16 @@
     <t>PT Migas</t>
   </si>
   <si>
-    <t>Leads Coba 5</t>
-  </si>
-  <si>
-    <t>Leads Coba 6</t>
-  </si>
-  <si>
-    <t>Leads Coba 7</t>
-  </si>
-  <si>
-    <t>Leads Coba 8</t>
+    <t>Leads Cobalagi</t>
+  </si>
+  <si>
+    <t>Leads Cobalagi 2</t>
+  </si>
+  <si>
+    <t>Leads Cobalagi 3</t>
+  </si>
+  <si>
+    <t>Leads Cobalagi 4</t>
   </si>
 </sst>
 </file>
@@ -516,7 +516,7 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,7 +606,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>9020123457</v>
+        <v>9020123109</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -648,8 +648,8 @@
         <v>21</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">TODAY()</f>
-        <v>44776</v>
+        <f ca="1">TODAY()+1</f>
+        <v>44789</v>
       </c>
       <c r="P2" s="2">
         <v>44977</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>9020654322</v>
+        <v>9020123408</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
@@ -705,8 +705,8 @@
         <v>21</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">TODAY()</f>
-        <v>44776</v>
+        <f t="shared" ref="O3:O5" ca="1" si="0">TODAY()+1</f>
+        <v>44789</v>
       </c>
       <c r="P3" s="2">
         <v>44978</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>9020234568</v>
+        <v>9020123707</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -762,8 +762,8 @@
         <v>21</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" ref="O4:O5" ca="1" si="0">(TODAY())</f>
-        <v>44776</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44789</v>
       </c>
       <c r="P4" s="2">
         <v>44977</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>9020765433</v>
+        <v>9020123106</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -823,7 +823,7 @@
       </c>
       <c r="O5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44776</v>
+        <v>44789</v>
       </c>
       <c r="P5" s="2">
         <v>44978</v>
